--- a/datasplash/prison-population-party-expanded.xlsx
+++ b/datasplash/prison-population-party-expanded.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="p13t09" sheetId="1" r:id="rId1"/>
@@ -670,13 +670,16 @@
     <t>obama</t>
   </si>
   <si>
-    <t>2012totalAdmission</t>
+    <t>totalAdmission2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -706,10 +709,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5627,8 +5632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5657,10 +5662,10 @@
       <c r="B2">
         <v>0.6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>11203</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>0.3836</v>
       </c>
       <c r="E2">
@@ -5671,10 +5676,10 @@
       <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>3906</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>0.40810000000000002</v>
       </c>
       <c r="E3">
@@ -5688,10 +5693,10 @@
       <c r="B4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>12970</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>0.44590000000000002</v>
       </c>
       <c r="E4">
@@ -5705,10 +5710,10 @@
       <c r="B5">
         <v>55.4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>5782</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>0.36880000000000002</v>
       </c>
       <c r="E5">
@@ -5722,10 +5727,10 @@
       <c r="B6">
         <v>11.7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>34294</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>0.60240000000000005</v>
       </c>
       <c r="E6">
@@ -5739,10 +5744,10 @@
       <c r="B7">
         <v>7.7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>9409</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>0.51490000000000002</v>
       </c>
       <c r="E7">
@@ -5756,10 +5761,10 @@
       <c r="B8">
         <v>-3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>5659</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>0.5806</v>
       </c>
       <c r="E8">
@@ -5773,10 +5778,10 @@
       <c r="B9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>3017</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>0.58609999999999995</v>
       </c>
       <c r="E9">
@@ -5790,10 +5795,10 @@
       <c r="B10">
         <v>4.2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>32265</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>0.50009999999999999</v>
       </c>
       <c r="E10">
@@ -5807,10 +5812,10 @@
       <c r="B11">
         <v>23.7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>15743</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>0.45479999999999998</v>
       </c>
       <c r="E11">
@@ -5824,10 +5829,10 @@
       <c r="B12">
         <v>-9.4</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>1524</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>0.70550000000000002</v>
       </c>
       <c r="E12">
@@ -5841,10 +5846,10 @@
       <c r="B13">
         <v>-18.600000000000001</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>4568</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>0.32619999999999999</v>
       </c>
       <c r="E13">
@@ -5858,10 +5863,10 @@
       <c r="B14">
         <v>0.3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>30877</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>0.57599999999999996</v>
       </c>
       <c r="E14">
@@ -5875,10 +5880,10 @@
       <c r="B15">
         <v>2.5</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>18694</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>0.43930000000000002</v>
       </c>
       <c r="E15">
@@ -5892,10 +5897,10 @@
       <c r="B16">
         <v>5.8</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>4877</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>0.51990000000000003</v>
       </c>
       <c r="E16">
@@ -5909,10 +5914,10 @@
       <c r="B17">
         <v>3.2</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>5060</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>0.37990000000000002</v>
       </c>
       <c r="E17">
@@ -5926,10 +5931,10 @@
       <c r="B18">
         <v>2.8</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>15399</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>0.378</v>
       </c>
       <c r="E18">
@@ -5943,10 +5948,10 @@
       <c r="B19">
         <v>-3.2</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>17325</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>0.40579999999999999</v>
       </c>
       <c r="E19">
@@ -5960,10 +5965,10 @@
       <c r="B20">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>846</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>0.5635143565396028</v>
       </c>
       <c r="E20">
@@ -5977,10 +5982,10 @@
       <c r="B21">
         <v>-1.8</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>9396</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>0.61970000000000003</v>
       </c>
       <c r="E21">
@@ -5994,10 +5999,10 @@
       <c r="B22">
         <v>-2.6</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>2635</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>0.60650000000000004</v>
       </c>
       <c r="E22">
@@ -6011,10 +6016,10 @@
       <c r="B23">
         <v>3.8</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>13888</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>0.54210000000000003</v>
       </c>
       <c r="E23">
@@ -6028,10 +6033,10 @@
       <c r="B24">
         <v>3.7</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>7412</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>0.52649999999999997</v>
       </c>
       <c r="E24">
@@ -6045,10 +6050,10 @@
       <c r="B25">
         <v>-5.3</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>8559</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>0.43790000000000001</v>
       </c>
       <c r="E25">
@@ -6062,10 +6067,10 @@
       <c r="B26">
         <v>4.2</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>18216</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>0.44379999999999997</v>
       </c>
       <c r="E26">
@@ -6079,10 +6084,10 @@
       <c r="B27">
         <v>17.899999999999999</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>2020</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>0.41699999999999998</v>
       </c>
       <c r="E27">
@@ -6096,10 +6101,10 @@
       <c r="B28">
         <v>5.8</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>2761</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>0.38175674556261624</v>
       </c>
       <c r="E28">
@@ -6113,10 +6118,10 @@
       <c r="B29">
         <v>18.8</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>4929</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>0.52359999999999995</v>
       </c>
       <c r="E29">
@@ -6130,10 +6135,10 @@
       <c r="B30">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>1696</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>0.51980000000000004</v>
       </c>
       <c r="E30">
@@ -6147,10 +6152,10 @@
       <c r="B31">
         <v>-1.7</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>9976</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="4">
         <v>0.58379999999999999</v>
       </c>
       <c r="E31">
@@ -6164,10 +6169,10 @@
       <c r="B32">
         <v>-0.4</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>3580</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="4">
         <v>0.52990000000000004</v>
       </c>
       <c r="E32">
@@ -6181,10 +6186,10 @@
       <c r="B33">
         <v>-1.4</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>23065</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>0.63349999999999995</v>
       </c>
       <c r="E33">
@@ -6198,10 +6203,10 @@
       <c r="B34">
         <v>16.399999999999999</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>12098</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="4">
         <v>0.48349999999999999</v>
       </c>
       <c r="E34">
@@ -6215,10 +6220,10 @@
       <c r="B35">
         <v>5.3</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>1160</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="4">
         <v>0.38690000000000002</v>
       </c>
       <c r="E35">
@@ -6232,10 +6237,10 @@
       <c r="B36">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>21529</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="4">
         <v>0.50670000000000004</v>
       </c>
       <c r="E36">
@@ -6249,10 +6254,10 @@
       <c r="B37">
         <v>4.2</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>7697</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="4">
         <v>0.33229999999999998</v>
       </c>
       <c r="E37">
@@ -6266,10 +6271,10 @@
       <c r="B38">
         <v>2.9</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>5376</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="4">
         <v>0.54239999999999999</v>
       </c>
       <c r="E38">
@@ -6283,10 +6288,10 @@
       <c r="B39">
         <v>10.6</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>18492</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>0.51970000000000005</v>
       </c>
       <c r="E39">
@@ -6300,10 +6305,10 @@
       <c r="B40">
         <v>-6.7</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>868</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="4">
         <v>0.627</v>
       </c>
       <c r="E40">
@@ -6317,10 +6322,10 @@
       <c r="B41">
         <v>-5.5</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>6802</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="4">
         <v>0.44090000000000001</v>
       </c>
       <c r="E41">
@@ -6334,10 +6339,10 @@
       <c r="B42">
         <v>-7.3</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>1986</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="4">
         <v>0.3987</v>
       </c>
       <c r="E42">
@@ -6351,10 +6356,10 @@
       <c r="B43">
         <v>-0.9</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <v>13922</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>0.39079999999999998</v>
       </c>
       <c r="E43">
@@ -6368,10 +6373,10 @@
       <c r="B44">
         <v>1.5</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>75378</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="4">
         <v>0.4138</v>
       </c>
       <c r="E44">
@@ -6385,10 +6390,10 @@
       <c r="B45">
         <v>-1.5</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <v>3142</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="4">
         <v>0.2475</v>
       </c>
       <c r="E45">
@@ -6402,10 +6407,10 @@
       <c r="B46">
         <v>-2.8</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <v>1912</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="4">
         <v>0.66569999999999996</v>
       </c>
       <c r="E46">
@@ -6419,10 +6424,10 @@
       <c r="B47">
         <v>-0.8</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="3">
         <v>11727</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="4">
         <v>0.51160000000000005</v>
       </c>
       <c r="E47">
@@ -6436,10 +6441,10 @@
       <c r="B48">
         <v>17.5</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="3">
         <v>18232</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="4">
         <v>0.56159999999999999</v>
       </c>
       <c r="E48">
@@ -6453,10 +6458,10 @@
       <c r="B49">
         <v>1.4</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="3">
         <v>3525</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="4">
         <v>0.35539999999999999</v>
       </c>
       <c r="E49">
@@ -6467,10 +6472,10 @@
       <c r="A50" t="s">
         <v>198</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="3">
         <v>6200</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="4">
         <v>0.52829999999999999</v>
       </c>
       <c r="E50">
@@ -6484,10 +6489,10 @@
       <c r="B51">
         <v>10.7</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>907</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="4">
         <v>0.2782</v>
       </c>
       <c r="E51">
@@ -6496,6 +6501,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6503,7 +6509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/datasplash/prison-population-party-expanded.xlsx
+++ b/datasplash/prison-population-party-expanded.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="p13t09" sheetId="1" r:id="rId1"/>
-    <sheet name="election-src" sheetId="2" r:id="rId2"/>
-    <sheet name="election-refined" sheetId="4" r:id="rId3"/>
-    <sheet name="combined" sheetId="3" r:id="rId4"/>
-    <sheet name="final" sheetId="5" r:id="rId5"/>
+    <sheet name="p13t09-refined" sheetId="6" r:id="rId2"/>
+    <sheet name="election-src" sheetId="2" r:id="rId3"/>
+    <sheet name="election-refined" sheetId="4" r:id="rId4"/>
+    <sheet name="combined" sheetId="3" r:id="rId5"/>
+    <sheet name="final" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="217">
   <si>
     <t>Bureau of Justice Statistics</t>
   </si>
@@ -671,6 +672,9 @@
   </si>
   <si>
     <t>totalAdmission2012</t>
+  </si>
+  <si>
+    <t>johnson</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C66"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,6 +3083,735 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11203</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11265</v>
+      </c>
+      <c r="D2">
+        <v>5.5037727474478472E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3906</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3906</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12970</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13538</v>
+      </c>
+      <c r="D4">
+        <v>4.1955975771901313E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5782</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8987</v>
+      </c>
+      <c r="D5">
+        <v>0.35662623789918774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>34294</v>
+      </c>
+      <c r="C6" s="1">
+        <v>38295</v>
+      </c>
+      <c r="D6">
+        <v>0.10447839143491318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9409</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10137</v>
+      </c>
+      <c r="D7">
+        <v>7.1816119167406531E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5659</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5492</v>
+      </c>
+      <c r="D8">
+        <v>-3.040786598689002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3017</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3142</v>
+      </c>
+      <c r="D9">
+        <v>3.9783577339274345E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <v>32265</v>
+      </c>
+      <c r="C10" s="1">
+        <v>33613</v>
+      </c>
+      <c r="D10">
+        <v>4.0103531371790679E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15743</v>
+      </c>
+      <c r="C11" s="1">
+        <v>19478</v>
+      </c>
+      <c r="D11">
+        <v>0.19175480028750386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1524</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1380</v>
+      </c>
+      <c r="D12">
+        <v>-0.10434782608695652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4568</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3719</v>
+      </c>
+      <c r="D13">
+        <v>-0.22828717397149773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1">
+        <v>30877</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30959</v>
+      </c>
+      <c r="D14">
+        <v>2.6486643625440098E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1">
+        <v>18694</v>
+      </c>
+      <c r="C15" s="1">
+        <v>19161</v>
+      </c>
+      <c r="D15">
+        <v>2.4372423151192528E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4877</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5159</v>
+      </c>
+      <c r="D16">
+        <v>5.4661756154293466E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5060</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5220</v>
+      </c>
+      <c r="D17">
+        <v>3.0651340996168581E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15399</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15834</v>
+      </c>
+      <c r="D18">
+        <v>2.7472527472527472E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17325</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16770</v>
+      </c>
+      <c r="D19">
+        <v>-3.3094812164579608E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>846</v>
+      </c>
+      <c r="C20">
+        <v>929</v>
+      </c>
+      <c r="D20">
+        <v>8.9343379978471471E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9396</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9223</v>
+      </c>
+      <c r="D21">
+        <v>-1.875745419061043E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2635</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2567</v>
+      </c>
+      <c r="D22">
+        <v>-2.6490066225165563E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1">
+        <v>13888</v>
+      </c>
+      <c r="C23" s="1">
+        <v>14417</v>
+      </c>
+      <c r="D23">
+        <v>3.6692793230214328E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7412</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7687</v>
+      </c>
+      <c r="D24">
+        <v>3.5774684532327308E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8559</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8105</v>
+      </c>
+      <c r="D25">
+        <v>-5.6014805675508948E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1">
+        <v>18216</v>
+      </c>
+      <c r="C26" s="1">
+        <v>18983</v>
+      </c>
+      <c r="D26">
+        <v>4.0404572512247799E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2382</v>
+      </c>
+      <c r="D27">
+        <v>0.15197313182199831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2761</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2922</v>
+      </c>
+      <c r="D28">
+        <v>5.5099247091033539E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4929</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5855</v>
+      </c>
+      <c r="D29">
+        <v>0.15815542271562766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1696</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1659</v>
+      </c>
+      <c r="D30">
+        <v>-2.2302591922845089E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9976</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9802</v>
+      </c>
+      <c r="D31">
+        <v>-1.7751479289940829E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3580</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3567</v>
+      </c>
+      <c r="D32">
+        <v>-3.6445192038127277E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1">
+        <v>23065</v>
+      </c>
+      <c r="C33" s="1">
+        <v>22740</v>
+      </c>
+      <c r="D33">
+        <v>-1.4291996481970097E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="1">
+        <v>12098</v>
+      </c>
+      <c r="C34" s="1">
+        <v>14077</v>
+      </c>
+      <c r="D34">
+        <v>0.14058393123534843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1160</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1222</v>
+      </c>
+      <c r="D35">
+        <v>5.0736497545008183E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1">
+        <v>21529</v>
+      </c>
+      <c r="C36" s="1">
+        <v>21998</v>
+      </c>
+      <c r="D36">
+        <v>2.1320120010910083E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7697</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8019</v>
+      </c>
+      <c r="D37">
+        <v>4.015463274722534E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5376</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5532</v>
+      </c>
+      <c r="D38">
+        <v>2.8199566160520606E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="1">
+        <v>18492</v>
+      </c>
+      <c r="C39" s="1">
+        <v>20455</v>
+      </c>
+      <c r="D39">
+        <v>9.5966756294304567E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <v>868</v>
+      </c>
+      <c r="C40">
+        <v>810</v>
+      </c>
+      <c r="D40">
+        <v>-7.160493827160494E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6802</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6431</v>
+      </c>
+      <c r="D41">
+        <v>-5.7689317368993936E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1986</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1842</v>
+      </c>
+      <c r="D42">
+        <v>-7.8175895765472306E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="1">
+        <v>13922</v>
+      </c>
+      <c r="C43" s="1">
+        <v>13803</v>
+      </c>
+      <c r="D43">
+        <v>-8.6213142070564377E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="1">
+        <v>75378</v>
+      </c>
+      <c r="C44" s="1">
+        <v>76488</v>
+      </c>
+      <c r="D44">
+        <v>1.4512080326325697E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3142</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3094</v>
+      </c>
+      <c r="D45">
+        <v>-1.5513897866839044E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1912</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1858</v>
+      </c>
+      <c r="D46">
+        <v>-2.9063509149623249E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="1">
+        <v>11727</v>
+      </c>
+      <c r="C47" s="1">
+        <v>11636</v>
+      </c>
+      <c r="D47">
+        <v>-7.820556892402887E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1">
+        <v>18232</v>
+      </c>
+      <c r="C48" s="1">
+        <v>21426</v>
+      </c>
+      <c r="D48">
+        <v>0.14907122187995892</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3525</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3573</v>
+      </c>
+      <c r="D49">
+        <v>1.343408900083963E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="1">
+        <v>6200</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7343</v>
+      </c>
+      <c r="D50">
+        <v>0.15565845022470379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51">
+        <v>907</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D51">
+        <v>9.6613545816733065E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
@@ -4436,12 +5169,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5628,12 +6361,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D1" sqref="B1:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5643,13 +6376,13 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
         <v>212</v>
@@ -5659,14 +6392,14 @@
       <c r="A2" t="s">
         <v>90</v>
       </c>
-      <c r="B2">
-        <v>0.6</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="3">
         <v>11203</v>
       </c>
+      <c r="C2" s="4">
+        <v>0.3836</v>
+      </c>
       <c r="D2" s="4">
-        <v>0.3836</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5676,11 +6409,14 @@
       <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B3" s="3">
         <v>3906</v>
       </c>
+      <c r="C3" s="4">
+        <v>0.40810000000000002</v>
+      </c>
       <c r="D3" s="4">
-        <v>0.40810000000000002</v>
+        <v>2.46E-2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5690,14 +6426,14 @@
       <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="3">
         <v>12970</v>
       </c>
+      <c r="C4" s="4">
+        <v>0.44590000000000002</v>
+      </c>
       <c r="D4" s="4">
-        <v>0.44590000000000002</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5707,14 +6443,14 @@
       <c r="A5" t="s">
         <v>96</v>
       </c>
-      <c r="B5">
-        <v>55.4</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="3">
         <v>5782</v>
       </c>
+      <c r="C5" s="4">
+        <v>0.36880000000000002</v>
+      </c>
       <c r="D5" s="4">
-        <v>0.36880000000000002</v>
+        <v>1.52E-2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5724,14 +6460,14 @@
       <c r="A6" t="s">
         <v>98</v>
       </c>
-      <c r="B6">
-        <v>11.7</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="3">
         <v>34294</v>
       </c>
+      <c r="C6" s="4">
+        <v>0.60240000000000005</v>
+      </c>
       <c r="D6" s="4">
-        <v>0.60240000000000005</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -5741,14 +6477,14 @@
       <c r="A7" t="s">
         <v>100</v>
       </c>
-      <c r="B7">
-        <v>7.7</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="3">
         <v>9409</v>
       </c>
+      <c r="C7" s="4">
+        <v>0.51490000000000002</v>
+      </c>
       <c r="D7" s="4">
-        <v>0.51490000000000002</v>
+        <v>1.38E-2</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -5758,14 +6494,14 @@
       <c r="A8" t="s">
         <v>102</v>
       </c>
-      <c r="B8">
-        <v>-3</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="3">
         <v>5659</v>
       </c>
+      <c r="C8" s="4">
+        <v>0.5806</v>
+      </c>
       <c r="D8" s="4">
-        <v>0.5806</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -5775,14 +6511,14 @@
       <c r="A9" t="s">
         <v>104</v>
       </c>
-      <c r="B9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="3">
         <v>3017</v>
       </c>
+      <c r="C9" s="4">
+        <v>0.58609999999999995</v>
+      </c>
       <c r="D9" s="4">
-        <v>0.58609999999999995</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -5792,14 +6528,14 @@
       <c r="A10" t="s">
         <v>108</v>
       </c>
-      <c r="B10">
-        <v>4.2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="3">
         <v>32265</v>
       </c>
+      <c r="C10" s="4">
+        <v>0.50009999999999999</v>
+      </c>
       <c r="D10" s="4">
-        <v>0.50009999999999999</v>
+        <v>5.3E-3</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -5809,14 +6545,14 @@
       <c r="A11" t="s">
         <v>110</v>
       </c>
-      <c r="B11">
-        <v>23.7</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="3">
         <v>15743</v>
       </c>
+      <c r="C11" s="4">
+        <v>0.45479999999999998</v>
+      </c>
       <c r="D11" s="4">
-        <v>0.45479999999999998</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5826,14 +6562,14 @@
       <c r="A12" t="s">
         <v>112</v>
       </c>
-      <c r="B12">
-        <v>-9.4</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="3">
         <v>1524</v>
       </c>
+      <c r="C12" s="4">
+        <v>0.70550000000000002</v>
+      </c>
       <c r="D12" s="4">
-        <v>0.70550000000000002</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -5843,14 +6579,14 @@
       <c r="A13" t="s">
         <v>114</v>
       </c>
-      <c r="B13">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="3">
         <v>4568</v>
       </c>
+      <c r="C13" s="4">
+        <v>0.32619999999999999</v>
+      </c>
       <c r="D13" s="4">
-        <v>0.32619999999999999</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5860,14 +6596,14 @@
       <c r="A14" t="s">
         <v>116</v>
       </c>
-      <c r="B14">
-        <v>0.3</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="3">
         <v>30877</v>
       </c>
+      <c r="C14" s="4">
+        <v>0.57599999999999996</v>
+      </c>
       <c r="D14" s="4">
-        <v>0.57599999999999996</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5877,14 +6613,14 @@
       <c r="A15" t="s">
         <v>118</v>
       </c>
-      <c r="B15">
-        <v>2.5</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="3">
         <v>18694</v>
       </c>
+      <c r="C15" s="4">
+        <v>0.43930000000000002</v>
+      </c>
       <c r="D15" s="4">
-        <v>0.43930000000000002</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5894,14 +6630,14 @@
       <c r="A16" t="s">
         <v>120</v>
       </c>
-      <c r="B16">
-        <v>5.8</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="3">
         <v>4877</v>
       </c>
+      <c r="C16" s="4">
+        <v>0.51990000000000003</v>
+      </c>
       <c r="D16" s="4">
-        <v>0.51990000000000003</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5911,14 +6647,14 @@
       <c r="A17" t="s">
         <v>122</v>
       </c>
-      <c r="B17">
-        <v>3.2</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="3">
         <v>5060</v>
       </c>
+      <c r="C17" s="4">
+        <v>0.37990000000000002</v>
+      </c>
       <c r="D17" s="4">
-        <v>0.37990000000000002</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -5928,14 +6664,14 @@
       <c r="A18" t="s">
         <v>124</v>
       </c>
-      <c r="B18">
-        <v>2.8</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="3">
         <v>15399</v>
       </c>
+      <c r="C18" s="4">
+        <v>0.378</v>
+      </c>
       <c r="D18" s="4">
-        <v>0.378</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5945,14 +6681,14 @@
       <c r="A19" t="s">
         <v>126</v>
       </c>
-      <c r="B19">
-        <v>-3.2</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="3">
         <v>17325</v>
       </c>
+      <c r="C19" s="4">
+        <v>0.40579999999999999</v>
+      </c>
       <c r="D19" s="4">
-        <v>0.40579999999999999</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5962,14 +6698,14 @@
       <c r="A20" t="s">
         <v>210</v>
       </c>
-      <c r="B20">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="3">
         <v>846</v>
       </c>
+      <c r="C20" s="4">
+        <v>0.5635143565396028</v>
+      </c>
       <c r="D20" s="4">
-        <v>0.5635143565396028</v>
+        <v>1.3117721911049462E-2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5979,14 +6715,14 @@
       <c r="A21" t="s">
         <v>134</v>
       </c>
-      <c r="B21">
-        <v>-1.8</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="3">
         <v>9396</v>
       </c>
+      <c r="C21" s="4">
+        <v>0.61970000000000003</v>
+      </c>
       <c r="D21" s="4">
-        <v>0.61970000000000003</v>
+        <v>1.12E-2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5996,14 +6732,14 @@
       <c r="A22" t="s">
         <v>136</v>
       </c>
-      <c r="B22">
-        <v>-2.6</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="3">
         <v>2635</v>
       </c>
+      <c r="C22" s="4">
+        <v>0.60650000000000004</v>
+      </c>
       <c r="D22" s="4">
-        <v>0.60650000000000004</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -6013,14 +6749,14 @@
       <c r="A23" t="s">
         <v>138</v>
       </c>
-      <c r="B23">
-        <v>3.8</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="3">
         <v>13888</v>
       </c>
+      <c r="C23" s="4">
+        <v>0.54210000000000003</v>
+      </c>
       <c r="D23" s="4">
-        <v>0.54210000000000003</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -6030,14 +6766,14 @@
       <c r="A24" t="s">
         <v>140</v>
       </c>
-      <c r="B24">
-        <v>3.7</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="3">
         <v>7412</v>
       </c>
+      <c r="C24" s="4">
+        <v>0.52649999999999997</v>
+      </c>
       <c r="D24" s="4">
-        <v>0.52649999999999997</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -6047,14 +6783,14 @@
       <c r="A25" t="s">
         <v>142</v>
       </c>
-      <c r="B25">
-        <v>-5.3</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="3">
         <v>8559</v>
       </c>
+      <c r="C25" s="4">
+        <v>0.43790000000000001</v>
+      </c>
       <c r="D25" s="4">
-        <v>0.43790000000000001</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -6064,14 +6800,14 @@
       <c r="A26" t="s">
         <v>144</v>
       </c>
-      <c r="B26">
-        <v>4.2</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="3">
         <v>18216</v>
       </c>
+      <c r="C26" s="4">
+        <v>0.44379999999999997</v>
+      </c>
       <c r="D26" s="4">
-        <v>0.44379999999999997</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -6081,14 +6817,14 @@
       <c r="A27" t="s">
         <v>146</v>
       </c>
-      <c r="B27">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="3">
         <v>2020</v>
       </c>
+      <c r="C27" s="4">
+        <v>0.41699999999999998</v>
+      </c>
       <c r="D27" s="4">
-        <v>0.41699999999999998</v>
+        <v>2.93E-2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -6098,14 +6834,14 @@
       <c r="A28" t="s">
         <v>211</v>
       </c>
-      <c r="B28">
-        <v>5.8</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="3">
         <v>2761</v>
       </c>
+      <c r="C28" s="4">
+        <v>0.38175674556261624</v>
+      </c>
       <c r="D28" s="4">
-        <v>0.38175674556261624</v>
+        <v>1.4044407389457947E-2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -6115,14 +6851,14 @@
       <c r="A29" t="s">
         <v>156</v>
       </c>
-      <c r="B29">
-        <v>18.8</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="3">
         <v>4929</v>
       </c>
+      <c r="C29" s="4">
+        <v>0.52359999999999995</v>
+      </c>
       <c r="D29" s="4">
-        <v>0.52359999999999995</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -6132,14 +6868,14 @@
       <c r="A30" t="s">
         <v>158</v>
       </c>
-      <c r="B30">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" s="3">
         <v>1696</v>
       </c>
+      <c r="C30" s="4">
+        <v>0.51980000000000004</v>
+      </c>
       <c r="D30" s="4">
-        <v>0.51980000000000004</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -6149,14 +6885,14 @@
       <c r="A31" t="s">
         <v>160</v>
       </c>
-      <c r="B31">
-        <v>-1.7</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" s="3">
         <v>9976</v>
       </c>
+      <c r="C31" s="4">
+        <v>0.58379999999999999</v>
+      </c>
       <c r="D31" s="4">
-        <v>0.58379999999999999</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -6166,14 +6902,14 @@
       <c r="A32" t="s">
         <v>162</v>
       </c>
-      <c r="B32">
-        <v>-0.4</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" s="3">
         <v>3580</v>
       </c>
+      <c r="C32" s="4">
+        <v>0.52990000000000004</v>
+      </c>
       <c r="D32" s="4">
-        <v>0.52990000000000004</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -6183,14 +6919,14 @@
       <c r="A33" t="s">
         <v>164</v>
       </c>
-      <c r="B33">
-        <v>-1.4</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B33" s="3">
         <v>23065</v>
       </c>
+      <c r="C33" s="4">
+        <v>0.63349999999999995</v>
+      </c>
       <c r="D33" s="4">
-        <v>0.63349999999999995</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -6200,14 +6936,14 @@
       <c r="A34" t="s">
         <v>166</v>
       </c>
-      <c r="B34">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="B34" s="3">
         <v>12098</v>
       </c>
+      <c r="C34" s="4">
+        <v>0.48349999999999999</v>
+      </c>
       <c r="D34" s="4">
-        <v>0.48349999999999999</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -6217,14 +6953,14 @@
       <c r="A35" t="s">
         <v>168</v>
       </c>
-      <c r="B35">
-        <v>5.3</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B35" s="3">
         <v>1160</v>
       </c>
+      <c r="C35" s="4">
+        <v>0.38690000000000002</v>
+      </c>
       <c r="D35" s="4">
-        <v>0.38690000000000002</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -6234,14 +6970,14 @@
       <c r="A36" t="s">
         <v>170</v>
       </c>
-      <c r="B36">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B36" s="3">
         <v>21529</v>
       </c>
+      <c r="C36" s="4">
+        <v>0.50670000000000004</v>
+      </c>
       <c r="D36" s="4">
-        <v>0.50670000000000004</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -6251,14 +6987,14 @@
       <c r="A37" t="s">
         <v>172</v>
       </c>
-      <c r="B37">
-        <v>4.2</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B37" s="3">
         <v>7697</v>
       </c>
+      <c r="C37" s="4">
+        <v>0.33229999999999998</v>
+      </c>
       <c r="D37" s="4">
-        <v>0.33229999999999998</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -6268,14 +7004,14 @@
       <c r="A38" t="s">
         <v>174</v>
       </c>
-      <c r="B38">
-        <v>2.9</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B38" s="3">
         <v>5376</v>
       </c>
+      <c r="C38" s="4">
+        <v>0.54239999999999999</v>
+      </c>
       <c r="D38" s="4">
-        <v>0.54239999999999999</v>
+        <v>1.35E-2</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -6285,14 +7021,14 @@
       <c r="A39" t="s">
         <v>176</v>
       </c>
-      <c r="B39">
-        <v>10.6</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B39" s="3">
         <v>18492</v>
       </c>
+      <c r="C39" s="4">
+        <v>0.51970000000000005</v>
+      </c>
       <c r="D39" s="4">
-        <v>0.51970000000000005</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -6302,14 +7038,14 @@
       <c r="A40" t="s">
         <v>178</v>
       </c>
-      <c r="B40">
-        <v>-6.7</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="B40" s="3">
         <v>868</v>
       </c>
+      <c r="C40" s="4">
+        <v>0.627</v>
+      </c>
       <c r="D40" s="4">
-        <v>0.627</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -6319,14 +7055,14 @@
       <c r="A41" t="s">
         <v>180</v>
       </c>
-      <c r="B41">
-        <v>-5.5</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="B41" s="3">
         <v>6802</v>
       </c>
+      <c r="C41" s="4">
+        <v>0.44090000000000001</v>
+      </c>
       <c r="D41" s="4">
-        <v>0.44090000000000001</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -6336,14 +7072,14 @@
       <c r="A42" t="s">
         <v>182</v>
       </c>
-      <c r="B42">
-        <v>-7.3</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="B42" s="3">
         <v>1986</v>
       </c>
+      <c r="C42" s="4">
+        <v>0.3987</v>
+      </c>
       <c r="D42" s="4">
-        <v>0.3987</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -6353,14 +7089,14 @@
       <c r="A43" t="s">
         <v>184</v>
       </c>
-      <c r="B43">
-        <v>-0.9</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="B43" s="3">
         <v>13922</v>
       </c>
+      <c r="C43" s="4">
+        <v>0.39079999999999998</v>
+      </c>
       <c r="D43" s="4">
-        <v>0.39079999999999998</v>
+        <v>7.6E-3</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -6370,14 +7106,14 @@
       <c r="A44" t="s">
         <v>186</v>
       </c>
-      <c r="B44">
-        <v>1.5</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="B44" s="3">
         <v>75378</v>
       </c>
+      <c r="C44" s="4">
+        <v>0.4138</v>
+      </c>
       <c r="D44" s="4">
-        <v>0.4138</v>
+        <v>1.11E-2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -6387,14 +7123,14 @@
       <c r="A45" t="s">
         <v>188</v>
       </c>
-      <c r="B45">
-        <v>-1.5</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="B45" s="3">
         <v>3142</v>
       </c>
+      <c r="C45" s="4">
+        <v>0.2475</v>
+      </c>
       <c r="D45" s="4">
-        <v>0.2475</v>
+        <v>1.24E-2</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -6404,14 +7140,14 @@
       <c r="A46" t="s">
         <v>190</v>
       </c>
-      <c r="B46">
-        <v>-2.8</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="B46" s="3">
         <v>1912</v>
       </c>
+      <c r="C46" s="4">
+        <v>0.66569999999999996</v>
+      </c>
       <c r="D46" s="4">
-        <v>0.66569999999999996</v>
+        <v>1.17E-2</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -6421,14 +7157,14 @@
       <c r="A47" t="s">
         <v>192</v>
       </c>
-      <c r="B47">
-        <v>-0.8</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="B47" s="3">
         <v>11727</v>
       </c>
+      <c r="C47" s="4">
+        <v>0.51160000000000005</v>
+      </c>
       <c r="D47" s="4">
-        <v>0.51160000000000005</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -6438,14 +7174,14 @@
       <c r="A48" t="s">
         <v>194</v>
       </c>
-      <c r="B48">
-        <v>17.5</v>
-      </c>
-      <c r="C48" s="3">
+      <c r="B48" s="3">
         <v>18232</v>
       </c>
+      <c r="C48" s="4">
+        <v>0.56159999999999999</v>
+      </c>
       <c r="D48" s="4">
-        <v>0.56159999999999999</v>
+        <v>1.35E-2</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -6455,14 +7191,14 @@
       <c r="A49" t="s">
         <v>196</v>
       </c>
-      <c r="B49">
-        <v>1.4</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="B49" s="3">
         <v>3525</v>
       </c>
+      <c r="C49" s="4">
+        <v>0.35539999999999999</v>
+      </c>
       <c r="D49" s="4">
-        <v>0.35539999999999999</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -6472,11 +7208,14 @@
       <c r="A50" t="s">
         <v>198</v>
       </c>
-      <c r="C50" s="3">
+      <c r="B50" s="3">
         <v>6200</v>
       </c>
+      <c r="C50" s="4">
+        <v>0.52829999999999999</v>
+      </c>
       <c r="D50" s="4">
-        <v>0.52829999999999999</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -6486,14 +7225,14 @@
       <c r="A51" t="s">
         <v>200</v>
       </c>
-      <c r="B51">
-        <v>10.7</v>
-      </c>
-      <c r="C51" s="3">
+      <c r="B51" s="3">
         <v>907</v>
       </c>
+      <c r="C51" s="4">
+        <v>0.2782</v>
+      </c>
       <c r="D51" s="4">
-        <v>0.2782</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -6505,406 +7244,728 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.6</v>
-      </c>
-      <c r="B2">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11203</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.3836</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3906</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.40810000000000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.46E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12970</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.44590000000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5782</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="3">
+        <v>34294</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9409</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5659</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.5806</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3017</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.58609999999999995</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="3">
+        <v>32265</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3">
+        <v>15743</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.45479999999999998</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1524</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4568</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="3">
+        <v>30877</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="3">
+        <v>18694</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.43930000000000002</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4877</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5060</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.37990000000000002</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15399</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.378</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="3">
+        <v>17325</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.40579999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="3">
+        <v>846</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.5635143565396028</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.3117721911049462E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9396</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2635</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.60650000000000004</v>
+      </c>
+      <c r="D22" s="4">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="3">
+        <v>13888</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="3">
+        <v>7412</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="3">
+        <v>8559</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.43790000000000001</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="3">
+        <v>18216</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.44379999999999997</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.93E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2761</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.38175674556261624</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.4044407389457947E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4929</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.52359999999999995</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1696</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="3">
+        <v>9976</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.58379999999999999</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="3">
+        <v>3580</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.52990000000000004</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="3">
+        <v>23065</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="D33" s="4">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="3">
+        <v>12098</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.48349999999999999</v>
+      </c>
+      <c r="D34" s="4">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1160</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.38690000000000002</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="3">
+        <v>21529</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.50670000000000004</v>
+      </c>
+      <c r="D36" s="4">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="3">
+        <v>7697</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="D37" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>55.4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11.7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7.7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4.2</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>23.7</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-9.4</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.3</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2.5</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5.8</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3.2</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2.8</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>-3.2</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-1.8</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-2.6</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3.8</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3.7</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>-5.3</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>4.2</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5.8</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>18.8</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>-1.7</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>-0.4</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>-1.4</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5.3</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>4.2</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2.9</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>10.6</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>-6.7</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>-5.5</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>-7.3</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>-0.9</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1.5</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>-1.5</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>-2.8</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>-0.8</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>17.5</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1.4</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>10.7</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5376</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.54239999999999999</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="3">
+        <v>18492</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.51970000000000005</v>
+      </c>
+      <c r="D39" s="4">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="3">
+        <v>868</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.627</v>
+      </c>
+      <c r="D40" s="4">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6802</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.44090000000000001</v>
+      </c>
+      <c r="D41" s="4">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.3987</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="3">
+        <v>13922</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="D43" s="4">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="3">
+        <v>75378</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.4138</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3142</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.2475</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1.24E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1912</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="3">
+        <v>11727</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="D47" s="4">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="3">
+        <v>18232</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="3">
+        <v>3525</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="D49" s="4">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="3">
+        <v>6200</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="D50" s="4">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" s="3">
+        <v>907</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.2782</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2.1399999999999999E-2</v>
       </c>
     </row>
   </sheetData>
